--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1748231.528373347</v>
+        <v>-1750807.849854589</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>28.93382893561892</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>16.22539291913858</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>95.17890526428845</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>207.9067705764261</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>17.80440117964434</v>
       </c>
       <c r="C5" t="n">
-        <v>38.54479897546834</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -984,10 +984,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657079</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
         <v>89.59687541851115</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>38.65093434223742</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>173.7878278358059</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>57.81578986397397</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1184,10 +1184,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>163.1594065778542</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>110.928091294372</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1309,7 +1309,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>186.5602535851264</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>72.26558381699925</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>172.5702346036273</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,10 +1771,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>31.40247677522967</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>140.3829797864967</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>48.85497112745762</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,13 +2248,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>147.2606364488705</v>
+        <v>57.24347904696321</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,16 +2533,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>244.6551177944156</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>96.02642072444128</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>214.0647808588581</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2953,22 +2953,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545296</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600556</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3190,22 +3190,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261728</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3275,13 +3275,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
         <v>124.3308255261727</v>
@@ -3433,7 +3433,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
         <v>141.2394908002292</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3664,10 +3664,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3901,10 +3901,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1238.038871968308</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="C2" t="n">
-        <v>869.0763550278959</v>
+        <v>1535.524858594926</v>
       </c>
       <c r="D2" t="n">
-        <v>510.8106564211454</v>
+        <v>1177.259159988176</v>
       </c>
       <c r="E2" t="n">
-        <v>510.8106564211454</v>
+        <v>791.4709073899314</v>
       </c>
       <c r="F2" t="n">
-        <v>510.8106564211454</v>
+        <v>380.4850026003239</v>
       </c>
       <c r="G2" t="n">
-        <v>95.7382062661419</v>
+        <v>380.4850026003239</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218339</v>
+        <v>82.90140220909109</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883006</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539435</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.243802269321</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X2" t="n">
-        <v>2014.778044008241</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y2" t="n">
-        <v>1624.638712032429</v>
+        <v>1904.487375535338</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>936.5735814686086</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064576</v>
+        <v>846.0716871064761</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>827.0643955080141</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031475</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>553.2677753977071</v>
+        <v>482.8906159540807</v>
       </c>
       <c r="C4" t="n">
-        <v>384.3315924698002</v>
+        <v>313.9544330261738</v>
       </c>
       <c r="D4" t="n">
-        <v>234.2149530574644</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574644</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U4" t="n">
-        <v>734.9162402279468</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V4" t="n">
-        <v>734.9162402279468</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W4" t="n">
-        <v>734.9162402279468</v>
+        <v>710.880166852098</v>
       </c>
       <c r="X4" t="n">
-        <v>734.9162402279468</v>
+        <v>482.8906159540807</v>
       </c>
       <c r="Y4" t="n">
-        <v>734.9162402279468</v>
+        <v>482.8906159540807</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1569.101759311879</v>
+        <v>1917.382287315189</v>
       </c>
       <c r="C5" t="n">
-        <v>1530.167618932618</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D5" t="n">
-        <v>1171.901920325867</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E5" t="n">
-        <v>786.1136677276232</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
         <v>779.1681669784198</v>
@@ -4559,58 +4559,58 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883006</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>3072.075344883006</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W5" t="n">
-        <v>2719.306689612892</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X5" t="n">
-        <v>2345.840931351812</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="Y5" t="n">
-        <v>1955.701599376001</v>
+        <v>1935.366530930992</v>
       </c>
     </row>
     <row r="6">
@@ -4632,19 +4632,19 @@
         <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>235.4482993600903</v>
+        <v>517.4719255574713</v>
       </c>
       <c r="C7" t="n">
-        <v>66.5121164321834</v>
+        <v>517.4719255574713</v>
       </c>
       <c r="D7" t="n">
-        <v>66.5121164321834</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E7" t="n">
-        <v>66.5121164321834</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U7" t="n">
-        <v>631.7841389438285</v>
+        <v>699.120390387711</v>
       </c>
       <c r="V7" t="n">
-        <v>631.7841389438285</v>
+        <v>699.120390387711</v>
       </c>
       <c r="W7" t="n">
-        <v>631.7841389438285</v>
+        <v>699.120390387711</v>
       </c>
       <c r="X7" t="n">
-        <v>456.2408785036204</v>
+        <v>699.120390387711</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.4482993600903</v>
+        <v>699.120390387711</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2034.604709474941</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4802,10 +4802,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3050.507671744493</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2719.444784400922</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450753</v>
+        <v>2719.444784400922</v>
       </c>
       <c r="X8" t="n">
-        <v>2424.744041450753</v>
+        <v>2345.979026139843</v>
       </c>
       <c r="Y8" t="n">
-        <v>2034.604709474941</v>
+        <v>2345.979026139843</v>
       </c>
     </row>
     <row r="9">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>639.3706644025392</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="C10" t="n">
-        <v>639.3706644025392</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D10" t="n">
-        <v>639.3706644025392</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
         <v>66.5121164321834</v>
@@ -4984,28 +4984,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>639.3706644025392</v>
+        <v>732.4423052271482</v>
       </c>
       <c r="T10" t="n">
-        <v>639.3706644025392</v>
+        <v>732.4423052271482</v>
       </c>
       <c r="U10" t="n">
-        <v>639.3706644025392</v>
+        <v>732.4423052271482</v>
       </c>
       <c r="V10" t="n">
-        <v>639.3706644025392</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="W10" t="n">
-        <v>639.3706644025392</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="X10" t="n">
-        <v>639.3706644025392</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="Y10" t="n">
-        <v>639.3706644025392</v>
+        <v>477.7578170212613</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5033,28 +5033,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5066,25 +5066,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,13 +5112,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
         <v>577.3880777468471</v>
@@ -5130,7 +5130,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1089.57599612053</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C13" t="n">
-        <v>920.6398131926233</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D13" t="n">
-        <v>770.5231737802875</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E13" t="n">
-        <v>622.6100801978944</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>475.720132699984</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>308.5240334148639</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>166.812202257062</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5224,25 +5224,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>2272.649715293768</v>
       </c>
       <c r="U13" t="n">
-        <v>2264.108249235165</v>
+        <v>1983.574488637966</v>
       </c>
       <c r="V13" t="n">
-        <v>2009.423761029278</v>
+        <v>1728.890000432079</v>
       </c>
       <c r="W13" t="n">
-        <v>1720.006590992317</v>
+        <v>1439.472830395119</v>
       </c>
       <c r="X13" t="n">
-        <v>1492.0170400943</v>
+        <v>1211.483279497101</v>
       </c>
       <c r="Y13" t="n">
-        <v>1271.22446095077</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="14">
@@ -5282,16 +5282,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5355,7 +5355,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
         <v>577.3880777468471</v>
@@ -5364,16 +5364,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2415.243410069927</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2232.388575724832</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2012.787110747773</v>
       </c>
       <c r="U16" t="n">
-        <v>2018.514925172274</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="17">
@@ -5507,25 +5507,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5601,16 +5601,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5650,22 +5650,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D19" t="n">
-        <v>513.8536007400712</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>513.8536007400712</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>366.9636532421608</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5732,31 +5732,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>869.6905094135296</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C22" t="n">
-        <v>700.7543264856228</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2298.214965955139</v>
+        <v>2389.141387573227</v>
       </c>
       <c r="T22" t="n">
-        <v>2078.61350097808</v>
+        <v>2169.539922596168</v>
       </c>
       <c r="U22" t="n">
-        <v>1789.538274322277</v>
+        <v>1880.464695940366</v>
       </c>
       <c r="V22" t="n">
-        <v>1789.538274322277</v>
+        <v>1625.780207734479</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.121104285317</v>
+        <v>1336.363037697518</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.131553387299</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.338974243769</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5978,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6218,31 +6218,31 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>802.9288273958739</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510509</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304622</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.359422267661</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.369871369644</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.5772922261136</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6446,52 +6446,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6534,10 +6534,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,16 +6719,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
         <v>483.8255460380728</v>
@@ -6874,7 +6874,7 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
         <v>2639.297491717215</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7084,22 +7084,22 @@
         <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7108,7 +7108,7 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
         <v>2496.057455973196</v>
@@ -7117,10 +7117,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
         <v>411.2214559580112</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7333,7 +7333,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
@@ -7354,7 +7354,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7363,19 +7363,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7412,7 +7412,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580115</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311319</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,28 +7591,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,28 +7807,28 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -7837,10 +7837,10 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>265.6739354517015</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>25.35153685378737</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22717,13 +22717,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -22759,16 +22759,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>126.1446701260158</v>
+        <v>76.56856047598777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>78.61622776016489</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>9.000252501566294</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>44.83521572366092</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892485</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23659,10 +23659,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>34.97276993489202</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>145.8014946027474</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,13 +24136,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24175,7 +24175,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>33.76564955277411</v>
+        <v>123.7828069546814</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>41.86788054217536</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>71.22040037418655</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -26317,7 +26317,7 @@
         <v>123156.2654796425</v>
       </c>
       <c r="D2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="E2" t="n">
         <v>121071.9899535009</v>
@@ -26341,7 +26341,7 @@
         <v>123156.2654796424</v>
       </c>
       <c r="L2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="M2" t="n">
         <v>123156.2654796425</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363183</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363181</v>
+        <v>19427.71799363175</v>
       </c>
     </row>
     <row r="4">
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3456.426522020573</v>
+        <v>3456.426522020514</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405257</v>
@@ -26433,31 +26433,31 @@
         <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189199</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189196</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189199</v>
       </c>
       <c r="K4" t="n">
-        <v>24037.44323498551</v>
+        <v>24037.44323498543</v>
       </c>
       <c r="L4" t="n">
-        <v>24037.4432349855</v>
+        <v>24037.44323498543</v>
       </c>
       <c r="M4" t="n">
-        <v>24037.44323498545</v>
+        <v>24037.44323498546</v>
       </c>
       <c r="N4" t="n">
-        <v>24037.44323498545</v>
+        <v>24037.44323498544</v>
       </c>
       <c r="O4" t="n">
         <v>24037.44323498544</v>
       </c>
       <c r="P4" t="n">
-        <v>24037.44323498543</v>
+        <v>24037.44323498544</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1340668.103800555</v>
+        <v>-1341062.924741708</v>
       </c>
       <c r="C6" t="n">
-        <v>-78374.41918580334</v>
+        <v>-78374.41918580333</v>
       </c>
       <c r="D6" t="n">
-        <v>-78374.41918580337</v>
+        <v>-78374.4191858034</v>
       </c>
       <c r="E6" t="n">
-        <v>-321509.5856496531</v>
+        <v>-321544.3235750891</v>
       </c>
       <c r="F6" t="n">
-        <v>3902.876157701859</v>
+        <v>3868.138232266093</v>
       </c>
       <c r="G6" t="n">
-        <v>3902.876157701845</v>
+        <v>3868.138232266137</v>
       </c>
       <c r="H6" t="n">
-        <v>3902.876157701801</v>
+        <v>3868.138232266064</v>
       </c>
       <c r="I6" t="n">
-        <v>3902.876157701874</v>
+        <v>3868.138232266122</v>
       </c>
       <c r="J6" t="n">
-        <v>-213628.3262395756</v>
+        <v>-213663.0641650115</v>
       </c>
       <c r="K6" t="n">
-        <v>-23473.01160289034</v>
+        <v>-23473.01160289021</v>
       </c>
       <c r="L6" t="n">
-        <v>-4045.293609258384</v>
+        <v>-4045.293609258457</v>
       </c>
       <c r="M6" t="n">
-        <v>-89100.32154477021</v>
+        <v>-89100.32154477018</v>
       </c>
       <c r="N6" t="n">
-        <v>-4045.293609258326</v>
+        <v>-4045.29360925834</v>
       </c>
       <c r="O6" t="n">
         <v>-4045.29360925834</v>
       </c>
       <c r="P6" t="n">
-        <v>-23473.01160289017</v>
+        <v>-23473.01160289007</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203972</v>
       </c>
-      <c r="L2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203968</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203974</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.2846474920397</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022925</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203978</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203978</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>64.88826281530861</v>
+        <v>209.6432777296251</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>364.9294404838362</v>
       </c>
       <c r="C5" t="n">
-        <v>326.7280927955392</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27704,7 +27704,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>109.9645386759749</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,10 +27825,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>51.92182755323122</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>307.4571019070336</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>87.83576538104776</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,10 +28017,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>35.50587135219722</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>3.208771746315534</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28068,7 +28068,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-2.053100445934254e-12</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28813,10 +28813,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="32">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -29995,13 +29995,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31610,7 +31610,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837925</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,25 +31838,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O12" t="n">
-        <v>340.4395077511235</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -31865,10 +31865,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32075,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>405.6377363145776</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>606.5820696732821</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32321,19 +32321,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N18" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,10 +32546,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32561,19 +32561,19 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>518.0009690113193</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>576.057346513631</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>188.4731159523453</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>688.8020111197783</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33205,7 +33205,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33494,10 +33494,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33512,13 +33512,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>316.0872899694776</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33731,31 +33731,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34132,7 +34132,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34147,7 +34147,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35258,7 +35258,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004592</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O12" t="n">
-        <v>197.843263306679</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35969,19 +35969,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N18" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36209,19 +36209,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>386.659256927986</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>433.4611020691866</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>45.87687150790087</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>546.2057666753338</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36990,10 +36990,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37160,13 +37160,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>173.4910455250332</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016746</v>
@@ -37479,7 +37479,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
         <v>144.686904791938</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
         <v>288.6172359016746</v>
@@ -38190,7 +38190,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
         <v>144.686904791938</v>
